--- a/finaldata.xlsx
+++ b/finaldata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Finalexame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2817CD65-37E4-4FDB-8736-0D3AF42FFF69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE79C6F5-CB85-4D31-81F6-A9940B6B30F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B4B0B62B-D7A4-4D43-A3CB-112504FCBE1C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{B4B0B62B-D7A4-4D43-A3CB-112504FCBE1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,13 +120,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -147,16 +168,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -477,35 +498,35 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="55.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="58.77734375" customWidth="1"/>
+    <col min="3" max="3" width="55.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="58.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -515,11 +536,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="121.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+    <row r="3" spans="1:7" ht="121.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -529,11 +550,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>20</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -543,11 +564,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+    <row r="5" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>30</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -557,11 +578,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+    <row r="6" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>40</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -571,7 +592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G11" s="1"/>
     </row>
   </sheetData>
